--- a/Excel/EquipXiLianConfig.xlsx
+++ b/Excel/EquipXiLianConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D34F1AE-2981-45CE-8A86-52D73E98950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6781E2-5534-4463-925F-8AC6C3185D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1200" windowWidth="27030" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipXiLianProto" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -795,7 +795,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>100100</v>
+        <v>100101</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -847,7 +847,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
-        <v>100102</v>
+        <v>100103</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -872,7 +872,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
-        <v>100103</v>
+        <v>100104</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
-        <v>100104</v>
+        <v>100105</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
-        <v>100105</v>
+        <v>100106</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
-        <v>100106</v>
+        <v>100107</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
-        <v>100107</v>
+        <v>100108</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
-        <v>100108</v>
+        <v>100109</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
-        <v>100109</v>
+        <v>100110</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
-        <v>100110</v>
+        <v>100111</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
-        <v>100111</v>
+        <v>100112</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
-        <v>100112</v>
+        <v>100113</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
-        <v>100113</v>
+        <v>100114</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>

--- a/Excel/EquipXiLianConfig.xlsx
+++ b/Excel/EquipXiLianConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6781E2-5534-4463-925F-8AC6C3185D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3561884B-3881-4426-8A83-DAC693C35220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipXiLianProto" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -123,9 +123,6 @@
     <t>RewardList</t>
   </si>
   <si>
-    <t>3;500@10010075;1@10010077;1</t>
-  </si>
-  <si>
     <t>ProList_Type</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -194,23 +191,41 @@
     <t>10级洗练家</t>
   </si>
   <si>
-    <t>11级洗练家</t>
-  </si>
-  <si>
-    <t>12级洗练家</t>
-  </si>
-  <si>
-    <t>13级洗练家</t>
-  </si>
-  <si>
-    <t>14级洗练家</t>
+    <t>10010083;20</t>
+  </si>
+  <si>
+    <t>10010083;30</t>
+  </si>
+  <si>
+    <t>10010083;50</t>
+  </si>
+  <si>
+    <t>10010083;75</t>
+  </si>
+  <si>
+    <t>10010083;100</t>
+  </si>
+  <si>
+    <t>10010083;125</t>
+  </si>
+  <si>
+    <t>10010083;150</t>
+  </si>
+  <si>
+    <t>10010083;175</t>
+  </si>
+  <si>
+    <t>10010083;200</t>
+  </si>
+  <si>
+    <t>10010083;250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +312,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +339,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,19 +395,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,10 +432,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1025"/>
+  <dimension ref="A1:I1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -720,56 +771,56 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -791,443 +842,270 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>100101</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
         <v>100</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="9">
+        <v>100102</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>250</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3">
-        <v>100102</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>200</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1100</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>100103</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>300</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>500</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>100104</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>400</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="9">
+        <v>100105</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1300</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="3">
-        <v>100105</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>500</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="9">
+        <v>100106</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1400</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>100106</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>600</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="9">
+        <v>100107</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>12500</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1500</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3">
-        <v>100107</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>700</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="9">
+        <v>100108</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>25000</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1600</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="3">
-        <v>100108</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>800</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="9">
+        <v>100109</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>37500</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1700</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3">
-        <v>100109</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>900</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="9">
+        <v>100110</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1800</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="3">
-        <v>100110</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1900</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="3">
-        <v>100111</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1100</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="3">
-        <v>100112</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2100</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="3">
-        <v>100113</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1300</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2200</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="3">
-        <v>100114</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1400</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H19" s="4">
-        <v>2300</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1244,254 +1122,375 @@
     <row r="46" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+    </row>
+    <row r="229" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+    </row>
+    <row r="230" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+    </row>
+    <row r="231" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -1499,10 +1498,7 @@
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -1510,10 +1506,7 @@
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -1521,10 +1514,7 @@
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -2353,10 +2343,6 @@
     <row r="1019" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="1020" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="1021" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="1022" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="1023" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="1024" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="1025" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipXiLianConfig.xlsx
+++ b/Excel/EquipXiLianConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3561884B-3881-4426-8A83-DAC693C35220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E4CD18-EE73-42E0-9C16-5986E968B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipXiLianProto" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -219,6 +219,14 @@
   </si>
   <si>
     <t>10010083;250</t>
+  </si>
+  <si>
+    <t>洗练等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiLianLevel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -753,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1021"/>
+  <dimension ref="A1:J1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C3:C5"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -766,14 +774,14 @@
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="5" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
@@ -781,22 +789,25 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
@@ -804,22 +815,25 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
@@ -830,19 +844,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9">
@@ -852,22 +869,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
         <v>100</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
       <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -879,22 +899,25 @@
         <v>0</v>
       </c>
       <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
         <v>250</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
       <c r="H7" s="9">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="9">
@@ -904,22 +927,25 @@
         <v>0</v>
       </c>
       <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9">
         <v>500</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
       <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9">
@@ -929,22 +955,25 @@
         <v>0</v>
       </c>
       <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9">
         <v>1500</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
       <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="9">
         <v>100105</v>
       </c>
@@ -952,22 +981,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
         <v>2500</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="9">
         <v>100106</v>
       </c>
@@ -975,22 +1007,25 @@
         <v>0</v>
       </c>
       <c r="E11" s="9">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9">
         <v>5000</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
       <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="9">
         <v>100107</v>
       </c>
@@ -998,22 +1033,25 @@
         <v>0</v>
       </c>
       <c r="E12" s="9">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9">
         <v>12500</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
       <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="9">
         <v>100108</v>
       </c>
@@ -1021,22 +1059,25 @@
         <v>0</v>
       </c>
       <c r="E13" s="9">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9">
         <v>25000</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
       <c r="H13" s="9">
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="9">
         <v>100109</v>
       </c>
@@ -1044,22 +1085,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="9">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9">
         <v>37500</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
       <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="9">
         <v>100110</v>
       </c>
@@ -1067,28 +1111,32 @@
         <v>0</v>
       </c>
       <c r="E15" s="9">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9">
         <v>50000</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
       <c r="H15" s="9">
         <v>0</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,127 +1170,142 @@
     <row r="46" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1252,8 +1315,9 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1263,8 +1327,9 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1274,8 +1339,9 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1285,20 +1351,21 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="81" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="82" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="83" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1443,10 +1510,10 @@
     <row r="222" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="223" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="224" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -1456,8 +1523,9 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
-    </row>
-    <row r="229" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J228" s="2"/>
+    </row>
+    <row r="229" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -1467,8 +1535,9 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
-    </row>
-    <row r="230" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J229" s="2"/>
+    </row>
+    <row r="230" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -1478,8 +1547,9 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
-    </row>
-    <row r="231" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J230" s="2"/>
+    </row>
+    <row r="231" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -1489,78 +1559,88 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232" s="2"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" s="2"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235" s="2"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" s="2"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" s="2"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238" s="2"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239" s="2"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
     </row>
     <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/Excel/EquipXiLianConfig.xlsx
+++ b/Excel/EquipXiLianConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E4CD18-EE73-42E0-9C16-5986E968B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC2F8A5-CCC2-49E6-90D0-66CECE24B422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28980" yWindow="810" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipXiLianProto" sheetId="1" r:id="rId1"/>
@@ -155,42 +155,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1级洗练家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>·</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2级洗练家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级洗练家</t>
-  </si>
-  <si>
-    <t>4级洗练家</t>
-  </si>
-  <si>
-    <t>5级洗练家</t>
-  </si>
-  <si>
-    <t>6级洗练家</t>
-  </si>
-  <si>
-    <t>7级洗练家</t>
-  </si>
-  <si>
-    <t>8级洗练家</t>
-  </si>
-  <si>
-    <t>9级洗练家</t>
-  </si>
-  <si>
-    <t>10级洗练家</t>
-  </si>
-  <si>
     <t>10010083;20</t>
   </si>
   <si>
@@ -227,6 +195,37 @@
   <si>
     <t>XiLianLevel</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级洗炼大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级洗炼大师</t>
+  </si>
+  <si>
+    <t>3级洗炼大师</t>
+  </si>
+  <si>
+    <t>4级洗炼大师</t>
+  </si>
+  <si>
+    <t>5级洗炼大师</t>
+  </si>
+  <si>
+    <t>6级洗炼大师</t>
+  </si>
+  <si>
+    <t>7级洗炼大师</t>
+  </si>
+  <si>
+    <t>8级洗炼大师</t>
+  </si>
+  <si>
+    <t>9级洗炼大师</t>
+  </si>
+  <si>
+    <t>10级洗炼大师</t>
   </si>
 </sst>
 </file>
@@ -765,7 +764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -789,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -815,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -875,7 +874,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -884,12 +883,12 @@
         <v>0</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="9">
@@ -905,16 +904,16 @@
         <v>250</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -933,16 +932,16 @@
         <v>500</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -961,16 +960,16 @@
         <v>1500</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,16 +986,16 @@
         <v>2500</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1013,16 +1012,16 @@
         <v>5000</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1039,16 +1038,16 @@
         <v>12500</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1065,16 +1064,16 @@
         <v>25000</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1091,16 +1090,16 @@
         <v>37500</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1117,16 +1116,16 @@
         <v>50000</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/EquipXiLianConfig.xlsx
+++ b/Excel/EquipXiLianConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC2F8A5-CCC2-49E6-90D0-66CECE24B422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA09E46-F71F-4969-AF4E-A48793EB8C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="810" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipXiLianProto" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>10级洗炼大师</t>
+  </si>
+  <si>
+    <t>初级洗练师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -760,11 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1021"/>
+  <dimension ref="A1:J1022"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -862,19 +866,19 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9">
-        <v>100101</v>
+        <v>100100</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -882,29 +886,27 @@
       <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>18</v>
+      <c r="J6" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9">
-        <v>100102</v>
+        <v>100101</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="9">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -913,26 +915,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="9">
-        <v>100103</v>
+        <v>100102</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -941,78 +945,80 @@
         <v>0</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9">
+        <v>100103</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9">
+        <v>500</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="9">
         <v>100104</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>1500</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="9">
-        <v>100105</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="9">
-        <v>100106</v>
+        <v>100105</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
       </c>
       <c r="E11" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="9">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
@@ -1021,24 +1027,24 @@
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="9">
-        <v>100107</v>
+        <v>100106</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
       <c r="E12" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="9">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -1047,24 +1053,24 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="9">
-        <v>100108</v>
+        <v>100107</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
       </c>
       <c r="E13" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="9">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -1073,24 +1079,24 @@
         <v>0</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="9">
-        <v>100109</v>
+        <v>100108</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
       </c>
       <c r="E14" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="9">
-        <v>37500</v>
+        <v>25000</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -1099,43 +1105,60 @@
         <v>0</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="9">
+        <v>100109</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>37500</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="9">
         <v>100110</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
         <v>10</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>50000</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1169,153 +1192,22 @@
     <row r="46" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-    </row>
+    <row r="49" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
@@ -1352,7 +1244,18 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+    </row>
     <row r="69" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1512,18 +1415,7 @@
     <row r="225" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="226" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="227" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-    </row>
+    <row r="228" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="229" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
@@ -1560,7 +1452,10 @@
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -2422,6 +2317,7 @@
     <row r="1019" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="1020" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="1021" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1022" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipXiLianConfig.xlsx
+++ b/Excel/EquipXiLianConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC01FCB-A659-4CC5-872F-CF400202F696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B998A-A129-4B86-A7CD-0EE061234AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,15 +170,9 @@
     <t>5级洗炼大师</t>
   </si>
   <si>
-    <t>10010083;100</t>
-  </si>
-  <si>
     <t>6级洗炼大师</t>
   </si>
   <si>
-    <t>10010083;125</t>
-  </si>
-  <si>
     <t>7级洗炼大师</t>
   </si>
   <si>
@@ -189,10 +183,6 @@
   </si>
   <si>
     <t>10级洗炼大师</t>
-  </si>
-  <si>
-    <t>10010083;175@11300004;1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>10010083;200@11300001;1</t>
@@ -203,11 +193,23 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;150@11300005;1</t>
+    <t>10010083;30</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;30</t>
+    <t>10010083;100@11300005;1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;175@11300002;1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;125@11300004;1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;150@11300007;1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -746,7 +748,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -920,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1002,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -1020,7 +1022,7 @@
         <v>7500</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -1029,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L12" s="1"/>
     </row>
@@ -1047,7 +1049,7 @@
         <v>17500</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="8">
         <v>0</v>
@@ -1056,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -1074,7 +1076,7 @@
         <v>37500</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="8">
         <v>0</v>
@@ -1083,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L14" s="1"/>
     </row>
@@ -1101,16 +1103,16 @@
         <v>62500</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -1128,16 +1130,16 @@
         <v>87500</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="L16" s="1"/>
     </row>

--- a/Excel/EquipXiLianConfig.xlsx
+++ b/Excel/EquipXiLianConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B998A-A129-4B86-A7CD-0EE061234AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4D34E7-1F1F-4D98-B864-872E93394B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>10010083;150@11300007;1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>11级洗炼大师</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>12级洗炼大师</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;300@11300008;1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1143,22 +1155,184 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8">
+        <v>100111</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8">
+        <v>130000</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8">
+        <v>100112</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8">
+        <v>180000</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
     <row r="33" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
